--- a/Exercises/S7L38_ConfInterv.xlsx
+++ b/Exercises/S7L38_ConfInterv.xlsx
@@ -603,7 +603,7 @@
   <dimension ref="B1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
